--- a/data/trans_camb/P53_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P53_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,98</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,07</t>
+          <t>11,14</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8,08</t>
+          <t>16,02</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,13</t>
+          <t>-15,97</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,52</t>
+          <t>-1,05</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,22</t>
+          <t>3,17</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,35</t>
+          <t>5,05</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>4,79</t>
+          <t>-6,08</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>6,56</t>
+          <t>-0,05</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>7,04</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>10,38</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-10,78</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,76; 27,44</t>
+          <t>-27,5; 25,73</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-10,61; 25,83</t>
+          <t>-15,29; 49,81</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,29; 29,29</t>
+          <t>-8,77; 55,87</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-14,64; 14,84</t>
+          <t>-41,62; 9,64</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-10,09; 19,83</t>
+          <t>-23,92; 19,06</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-8,96; 19,39</t>
+          <t>-19,1; 22,67</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-8,03; 16,17</t>
+          <t>-17,98; 24,75</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-6,28; 17,24</t>
+          <t>-29,15; 22,09</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 20,18</t>
+          <t>-18,15; 16,48</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-9,51; 26,83</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-6,81; 30,37</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-27,61; 11,58</t>
         </is>
       </c>
     </row>
@@ -738,47 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>18,11%</t>
+          <t>3,62%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>13,15%</t>
+          <t>31,87%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>20,96%</t>
+          <t>45,85%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,29%</t>
+          <t>-45,69%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>10,27%</t>
+          <t>-2,14%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>11,85%</t>
+          <t>6,48%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>8,1%</t>
+          <t>10,31%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>11,57%</t>
+          <t>-12,42%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>15,86%</t>
+          <t>-0,13%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>16,72%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>24,67%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-25,62%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-21,62; 87,58</t>
+          <t>-55,13; 107,25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-24,82; 88,56</t>
+          <t>-35,8; 274,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-17,08; 100,25</t>
+          <t>-23,06; 353,44</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-28,2; 41,07</t>
+          <t>-83,47; 30,89</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-20,41; 55,75</t>
+          <t>-39,2; 50,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-17,96; 52,99</t>
+          <t>-33,93; 60,74</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-17,05; 46,42</t>
+          <t>-31,63; 67,87</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-13,24; 48,64</t>
+          <t>-53,25; 65,54</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-8,44; 58,81</t>
+          <t>-35,31; 48,11</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-20,16; 83,57</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-14,68; 93,47</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-57,54; 30,7</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,45</t>
+          <t>1,6</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,09</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,41</t>
+          <t>1,66</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,03</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,57</t>
+          <t>-1,44</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,67</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,11</t>
+          <t>-4,24</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,16</t>
+          <t>1,48</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-0,66</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0,62</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-1,83</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,38; 14,61</t>
+          <t>-12,33; 18,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,27; 11,72</t>
+          <t>-14,49; 12,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,33; 16,6</t>
+          <t>-12,16; 15,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,78; 7,16</t>
+          <t>-13,57; 16,45</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,54; 8,97</t>
+          <t>-8,44; 10,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 11,62</t>
+          <t>-11,15; 7,66</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,72; 7,55</t>
+          <t>-9,38; 9,06</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,94; 7,7</t>
+          <t>-12,93; 6,25</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 10,83</t>
+          <t>-6,9; 10,72</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-9,0; 7,67</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-8,5; 9,22</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-10,54; 7,91</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>12,47%</t>
+          <t>8,7%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>10,61%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>22,46%</t>
+          <t>9,01%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-3,54%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,72%</t>
+          <t>4,96%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>8,81%</t>
+          <t>-5,69%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,75%</t>
+          <t>-0,33%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>4,52%</t>
+          <t>-16,68%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>12,9%</t>
+          <t>6,76%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-3,02%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>2,82%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-8,32%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1136,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-36,48; 103,51</t>
+          <t>-52,96; 143,73</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-36,54; 76,71</t>
+          <t>-59,05; 98,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-27,85; 121,54</t>
+          <t>-53,55; 115,62</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-28,62; 29,48</t>
+          <t>-59,08; 134,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-23,32; 35,23</t>
+          <t>-28,87; 50,61</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-15,63; 46,09</t>
+          <t>-37,23; 38,88</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-20,87; 35,62</t>
+          <t>-31,79; 44,8</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-22,52; 35,26</t>
+          <t>-44,23; 30,89</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-13,24; 49,31</t>
+          <t>-26,44; 60,03</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-34,69; 45,03</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-32,71; 48,97</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-40,14; 46,8</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,23</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>-0,44</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>-2,54</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,33</t>
+          <t>-5,75</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>4,0</t>
+          <t>2,23</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>5,31</t>
+          <t>3,33</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>2,74</t>
+          <t>4,07</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>2,23</t>
+          <t>-3,11</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>2,85</t>
+          <t>1,58</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>1,65</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>1,09</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-4,26</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 11,95</t>
+          <t>-9,07; 11,86</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,24; 7,78</t>
+          <t>-9,66; 10,91</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,38; 5,76</t>
+          <t>-12,02; 5,84</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 7,07</t>
+          <t>-14,97; 0,26</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 8,93</t>
+          <t>-2,68; 6,98</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,16; 10,83</t>
+          <t>-1,86; 8,5</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 7,15</t>
+          <t>-1,08; 9,76</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 6,25</t>
+          <t>-8,26; -0,72</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 7,02</t>
+          <t>-3,53; 7,74</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-3,35; 7,45</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-3,99; 6,4</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-8,45; -0,63</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1344,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>58,54%</t>
+          <t>10,28%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>-5,54%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1,62%</t>
+          <t>-32,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>48,8%</t>
+          <t>-72,6%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>83,98%</t>
+          <t>61,69%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>111,45%</t>
+          <t>91,96%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>53,57%</t>
+          <t>112,51%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>43,64%</t>
+          <t>-85,92%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>55,71%</t>
+          <t>28,55%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>29,77%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>19,65%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-76,9%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1412,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-61,71; 386,21</t>
+          <t>-80,79; 329,29</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-77,76; 356,34</t>
+          <t>-85,82; 404,87</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-79,01; 209,71</t>
+          <t>-92,74; 209,47</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-42,57; 289,09</t>
+          <t>-100,0; 69,96</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-18,82; 311,05</t>
+          <t>-57,22; 407,47</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-5,62; 460,83</t>
+          <t>-51,01; 546,76</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-25,04; 232,69</t>
+          <t>-36,82; 603,07</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-33,73; 198,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-22,68; 218,04</t>
+          <t>-48,37; 237,02</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-48,87; 240,19</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-55,74; 198,07</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-97,0; 10,69</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,81</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,95</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,6</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,38</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,05</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>2,22</t>
+          <t>—</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>4,06</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 11,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 8,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 12,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 5,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 7,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 9,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 6,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 6,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 8,85</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>21,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>10,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>22,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>1,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>11,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>19,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>10,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>10,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>19,87%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,59 +1688,358 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-17,08; 72,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-25,34; 53,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-15,77; 75,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-18,42; 29,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-9,96; 39,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-5,78; 48,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-9,41; 34,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-9,42; 32,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 47,66</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>1,48</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>1,56</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>2,72</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-3,38</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>1,45</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>1,41</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>2,86</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-1,74</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>1,47</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>1,46</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>2,73</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>-2,57</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-7,3; 10,2</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-7,21; 11,01</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-7,66; 13,03</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-11,83; 6,42</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-4,28; 7,59</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-4,56; 7,18</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-3,43; 8,3</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-8,02; 6,34</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-3,82; 6,35</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-3,91; 6,94</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-2,61; 8,64</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-7,96; 3,63</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>8,87%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>9,38%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>16,32%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-20,3%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>7,67%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>7,43%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>15,11%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-9,15%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>8,25%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>8,16%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>15,3%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>-14,37%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-37,06; 78,85</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-37,96; 81,87</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-38,78; 99,43</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-55,35; 51,61</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-20,17; 47,89</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-21,18; 43,88</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-15,94; 51,72</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-37,46; 41,57</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-19,38; 40,59</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-19,4; 45,09</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-13,54; 53,39</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-39,32; 24,56</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
